--- a/COMP 5570 - Computer Systems/COMP5570 - Computer Systems Cheatsheet.xlsx
+++ b/COMP 5570 - Computer Systems/COMP5570 - Computer Systems Cheatsheet.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livekentac-my.sharepoint.com/personal/cw734_kent_ac_uk/Documents/Year 2/COMP 5570 - Computer Systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{8E124519-D201-4BC5-B894-CF72FB495BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0A2FD2B-D1BB-4E45-8889-1CCFD1FCBB93}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{8E124519-D201-4BC5-B894-CF72FB495BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DD36CC9-EEEF-4841-8364-643B4C27EACB}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{6AFA62CE-6471-4E2F-A950-5D3410004B66}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" firstSheet="1" activeTab="2" xr2:uid="{6AFA62CE-6471-4E2F-A950-5D3410004B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture 1 - Introduction" sheetId="2" r:id="rId1"/>
+    <sheet name="Lecture 2 - Boolean Basics" sheetId="3" r:id="rId2"/>
+    <sheet name="Lect 3 - Boolean to Arithmetic" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,11 +38,11 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="13">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -48,17 +50,137 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="13">
     <bk>
       <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Concept</t>
   </si>
@@ -190,12 +312,236 @@
 - Hexadecimal (base 16): digits 0-9 and A-F, powers of 16
 - Example: 12 (decimal) = 14 (octal) = 1100 (binary) = C (hexadecimal)</t>
   </si>
+  <si>
+    <t>AND Gate</t>
+  </si>
+  <si>
+    <t>Both x and y must be true in order for it to pass as true. Otherwise it will lead to false</t>
+  </si>
+  <si>
+    <t>OR Gate</t>
+  </si>
+  <si>
+    <t>Either x or y must be true in order for it to pass as true. If both are false, then it will lead to false</t>
+  </si>
+  <si>
+    <t>If x is 0, then the output is 1. If x is 1, then the output is 0. It is the reverse of whatever is inputted</t>
+  </si>
+  <si>
+    <t>Not Gate (single variable)</t>
+  </si>
+  <si>
+    <t>Boolean identities</t>
+  </si>
+  <si>
+    <t>List of boolean identities:
+- Commutative laws
+- Associative laws
+- Distributive laws
+- De Morgan laws
+- Idempotence
+- Double negation</t>
+  </si>
+  <si>
+    <t>Commutative laws</t>
+  </si>
+  <si>
+    <t>Associative laws</t>
+  </si>
+  <si>
+    <t>Distributive laws</t>
+  </si>
+  <si>
+    <t>De Morgan laws</t>
+  </si>
+  <si>
+    <t>Idempotence</t>
+  </si>
+  <si>
+    <t>Double negation</t>
+  </si>
+  <si>
+    <t>NAND Gate</t>
+  </si>
+  <si>
+    <t>The reverse of an AND gate. If x is 1 and y is 1, then the output is 0. Otherwise the output is 1</t>
+  </si>
+  <si>
+    <t>Outputs 1 when either x or y is 1, and the other variable is 0. This means that if both x and y are 0 then the output is 0, and if x and y are 1 then the output is 0 also.</t>
+  </si>
+  <si>
+    <t>XOR Gate (the X stands for exclusive)</t>
+  </si>
+  <si>
+    <t>HDL (Hardware Description Language)</t>
+  </si>
+  <si>
+    <t>HDL is a functional/declarative language which is used to describe the structure, behaviour and timing of electronic circuits and digital logic circuits.</t>
+  </si>
+  <si>
+    <t>Example HDL code for creating an XOR Gate</t>
+  </si>
+  <si>
+    <t>/** Xor gate: out = (a And Not(b)) Or (Not(a) And b))*/
+CHIP Xor {
+    IN a, b;
+    OUT out;
+    PARTS:
+    Not (in=a, out=nota);
+    Not (in=b, out=notb);
+    And (a=a, b=notb, out=aAndNotb);
+    And (a=nota, b=b, out=notaAndb);
+    Or (a=aAndNotb, b=notaAndb, out=out);
+}</t>
+  </si>
+  <si>
+    <t>This code defines the logic for an XOR (exclusive OR) gate using a hardware description language. An XOR gate outputs true only when the two binary input values are unequal.
+1: Inputs and Outputs: The CHIP named Xor has two inputs (a and b) and one output (out).
+2: Logic Gates:
+  - NOT gates: Invert the inputs a and b to produce nota and notb.
+  - AND gates: Combine each original input with the inverted version of the other input (a AND notb and nota AND b).
+  - OR gate: Combines the outputs of the two AND gates to produce the final output out.
+This structure effectively implements the XOR logic: out = (a AND NOT(b)) OR (NOT(a) AND b).</t>
+  </si>
+  <si>
+    <t>Example .txt (test) script for evaluating the hdl code</t>
+  </si>
+  <si>
+    <t>load Xor.hdl;
+output-file Xor.out,
+compare-to Xor.cmp
+output-list a b out;
+set a 0, set b 0, eval;
+set a 0, set b 1, eval;
+set a 1, set b 0, eval;
+set a 1, set b 1, eval;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Explaining the code:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>load Xor.hdl;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Loads the XOR gate definition from the file Xor.hdl.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>output-file Xor.out,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Specifies that the output of the test should be written to the file Xor.out.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compare-to Xor.cmp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Indicates that the output should be compared to the expected results in the file Xor.cmp.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>output-list a b out;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Defines the format of the output list, specifying that the values of inputs a and b, and the output out should be included.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">set a ... set b ..., eval;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When running the .hdl file, we are testing multiple different inputs and outputs.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,16 +549,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -220,22 +588,172 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
+  <dxfs count="22">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -252,6 +770,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -268,6 +789,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -311,9 +836,57 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="13">
   <rv s="0">
     <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>9</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>10</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>11</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>12</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -331,17 +904,55 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+  <rel r:id="rId10"/>
+  <rel r:id="rId11"/>
+  <rel r:id="rId12"/>
+  <rel r:id="rId13"/>
 </richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F0BF9AA8-61B2-4A24-8CE2-456952B6BD75}" name="Table2" displayName="Table2" ref="A1:D11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F0BF9AA8-61B2-4A24-8CE2-456952B6BD75}" name="Table2" displayName="Table2" ref="A1:D11" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:D11" xr:uid="{F0BF9AA8-61B2-4A24-8CE2-456952B6BD75}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{001B0B5C-4D12-4F24-A526-A6CD61886DD3}" name="Concept" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{BEEDB59D-753F-44D0-B380-7EBE644AF613}" name="Simple Explanation" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{173FB7E8-7944-47AB-A3B6-130CC3BA1A0E}" name="More Details" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{D9DA4200-4B4B-4500-981C-AC44309A405F}" name="Images" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{001B0B5C-4D12-4F24-A526-A6CD61886DD3}" name="Concept" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{BEEDB59D-753F-44D0-B380-7EBE644AF613}" name="Simple Explanation" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{173FB7E8-7944-47AB-A3B6-130CC3BA1A0E}" name="More Details" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{D9DA4200-4B4B-4500-981C-AC44309A405F}" name="Images" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33E49A84-9C65-4395-B1AF-F1FDD2B74D33}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A1:D13" xr:uid="{33E49A84-9C65-4395-B1AF-F1FDD2B74D33}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F7385C5B-E307-4705-A518-613A4BEFAF75}" name="Concept" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{2E96E1B9-7B99-46E0-977B-FFDCB1FF6B88}" name="Simple Explanation" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{08D085D8-0647-4F54-BE7F-A866B8A2F147}" name="More Details" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{BD99A90E-BF38-4A48-B19C-6454ADCFD4BA}" name="Images" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F76A7C9-8932-4CE9-ADCD-5523DA787981}" name="Table3" displayName="Table3" ref="A1:D4" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="A1:D4" xr:uid="{6F76A7C9-8932-4CE9-ADCD-5523DA787981}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8DF160BD-0435-454F-8C65-50810D9F3108}" name="Concept" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{06F04623-DBC6-48CF-BA91-5CBC0A543B4A}" name="Simple Explanation" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C88D8EF0-5E79-48CF-951A-C5C08C4FE050}" name="More Details" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9F4482CC-1FD0-4F9E-86DC-85FBFD6BCCFC}" name="Images" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -666,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C11707-3671-4066-B466-9B7955BA8529}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,7 +1304,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -767,7 +1378,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -814,6 +1425,228 @@
         <v>25</v>
       </c>
       <c r="D11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F328B311-62BC-485A-89C7-2D60C266CB96}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="33.77734375" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="171.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="6" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="6" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="6" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="6" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="6" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="6" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="6" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="6" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2C8220-7410-4EF2-8250-6DFF6D6FCB86}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.21875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="6" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/COMP 5570 - Computer Systems/COMP5570 - Computer Systems Cheatsheet.xlsx
+++ b/COMP 5570 - Computer Systems/COMP5570 - Computer Systems Cheatsheet.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livekentac-my.sharepoint.com/personal/cw734_kent_ac_uk/Documents/Year 2/COMP 5570 - Computer Systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{8E124519-D201-4BC5-B894-CF72FB495BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DD36CC9-EEEF-4841-8364-643B4C27EACB}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="8_{8E124519-D201-4BC5-B894-CF72FB495BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87A235D5-7662-4C15-A853-A688BFA5E193}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" firstSheet="1" activeTab="2" xr2:uid="{6AFA62CE-6471-4E2F-A950-5D3410004B66}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" tabRatio="681" firstSheet="3" activeTab="4" xr2:uid="{6AFA62CE-6471-4E2F-A950-5D3410004B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture 1 - Introduction" sheetId="2" r:id="rId1"/>
     <sheet name="Lecture 2 - Boolean Basics" sheetId="3" r:id="rId2"/>
     <sheet name="Lect 3 - Boolean to Arithmetic" sheetId="4" r:id="rId3"/>
+    <sheet name="Lecture 4 - Hardware Simulator" sheetId="5" r:id="rId4"/>
+    <sheet name="Lecture 5 - Building the ALU" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="13">
+  <futureMetadata name="XLRICHVALUE" count="15">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -134,8 +136,22 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="13">
+  <valueMetadata count="15">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -174,13 +190,19 @@
     </bk>
     <bk>
       <rc t="1" v="12"/>
+    </bk>
+    <bk>
+      <rc t="1" v="13"/>
+    </bk>
+    <bk>
+      <rc t="1" v="14"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>Concept</t>
   </si>
@@ -380,19 +402,6 @@
   </si>
   <si>
     <t>Example HDL code for creating an XOR Gate</t>
-  </si>
-  <si>
-    <t>/** Xor gate: out = (a And Not(b)) Or (Not(a) And b))*/
-CHIP Xor {
-    IN a, b;
-    OUT out;
-    PARTS:
-    Not (in=a, out=nota);
-    Not (in=b, out=notb);
-    And (a=a, b=notb, out=aAndNotb);
-    And (a=nota, b=b, out=notaAndb);
-    Or (a=aAndNotb, b=notaAndb, out=out);
-}</t>
   </si>
   <si>
     <t>This code defines the logic for an XOR (exclusive OR) gate using a hardware description language. An XOR gate outputs true only when the two binary input values are unequal.
@@ -536,6 +545,60 @@
       <t>When running the .hdl file, we are testing multiple different inputs and outputs.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/** Xor gate: out = (a And Not(b)) Or (Not(a) And b))*/
+CHIP Xor {
+    IN a, b;
+    OUT out;
+    PARTS:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    Not (in=a, out=nota);
+    Not (in=b, out=notb);
+    And (a=a, b=notb, out=aAndNotb);
+    And (a=nota, b=b, out=notaAndb);
+    Or (a=aAndNotb, b=notaAndb, out=out);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Multiplexor</t>
+  </si>
+  <si>
+    <t>The multiplexor allows us to select which variable we'd like to select.</t>
+  </si>
+  <si>
+    <t>There are multiple types of multiplexors. The most simple multiplexor is a two-way multiplexor, with another variable that allows us to select which item we'd like to select.</t>
+  </si>
+  <si>
+    <t>The Arithmetic Logic Unit</t>
+  </si>
+  <si>
+    <t>The ALU computes a function on the two inputs, and outputs the result.</t>
+  </si>
+  <si>
+    <t>The Hack ALU</t>
+  </si>
 </sst>
 </file>
 
@@ -566,7 +629,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,8 +642,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -619,11 +688,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -641,14 +747,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <b/>
@@ -676,18 +788,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -700,6 +800,116 @@
           <color theme="4" tint="0.39997558519241921"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -836,7 +1046,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="13">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="15">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -889,6 +1099,14 @@
     <v>12</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>13</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>14</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -916,43 +1134,71 @@
   <rel r:id="rId11"/>
   <rel r:id="rId12"/>
   <rel r:id="rId13"/>
+  <rel r:id="rId14"/>
+  <rel r:id="rId15"/>
 </richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F0BF9AA8-61B2-4A24-8CE2-456952B6BD75}" name="Table2" displayName="Table2" ref="A1:D11" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F0BF9AA8-61B2-4A24-8CE2-456952B6BD75}" name="Table2" displayName="Table2" ref="A1:D11" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:D11" xr:uid="{F0BF9AA8-61B2-4A24-8CE2-456952B6BD75}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{001B0B5C-4D12-4F24-A526-A6CD61886DD3}" name="Concept" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{BEEDB59D-753F-44D0-B380-7EBE644AF613}" name="Simple Explanation" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{173FB7E8-7944-47AB-A3B6-130CC3BA1A0E}" name="More Details" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{D9DA4200-4B4B-4500-981C-AC44309A405F}" name="Images" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{001B0B5C-4D12-4F24-A526-A6CD61886DD3}" name="Concept" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{BEEDB59D-753F-44D0-B380-7EBE644AF613}" name="Simple Explanation" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{173FB7E8-7944-47AB-A3B6-130CC3BA1A0E}" name="More Details" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{D9DA4200-4B4B-4500-981C-AC44309A405F}" name="Images" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33E49A84-9C65-4395-B1AF-F1FDD2B74D33}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33E49A84-9C65-4395-B1AF-F1FDD2B74D33}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
   <autoFilter ref="A1:D13" xr:uid="{33E49A84-9C65-4395-B1AF-F1FDD2B74D33}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F7385C5B-E307-4705-A518-613A4BEFAF75}" name="Concept" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{2E96E1B9-7B99-46E0-977B-FFDCB1FF6B88}" name="Simple Explanation" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{08D085D8-0647-4F54-BE7F-A866B8A2F147}" name="More Details" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{BD99A90E-BF38-4A48-B19C-6454ADCFD4BA}" name="Images" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{F7385C5B-E307-4705-A518-613A4BEFAF75}" name="Concept" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{2E96E1B9-7B99-46E0-977B-FFDCB1FF6B88}" name="Simple Explanation" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{08D085D8-0647-4F54-BE7F-A866B8A2F147}" name="More Details" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{BD99A90E-BF38-4A48-B19C-6454ADCFD4BA}" name="Images" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F76A7C9-8932-4CE9-ADCD-5523DA787981}" name="Table3" displayName="Table3" ref="A1:D4" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F76A7C9-8932-4CE9-ADCD-5523DA787981}" name="Table3" displayName="Table3" ref="A1:D4" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
   <autoFilter ref="A1:D4" xr:uid="{6F76A7C9-8932-4CE9-ADCD-5523DA787981}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8DF160BD-0435-454F-8C65-50810D9F3108}" name="Concept" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{06F04623-DBC6-48CF-BA91-5CBC0A543B4A}" name="Simple Explanation" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C88D8EF0-5E79-48CF-951A-C5C08C4FE050}" name="More Details" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9F4482CC-1FD0-4F9E-86DC-85FBFD6BCCFC}" name="Images" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8DF160BD-0435-454F-8C65-50810D9F3108}" name="Concept" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{06F04623-DBC6-48CF-BA91-5CBC0A543B4A}" name="Simple Explanation" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{C88D8EF0-5E79-48CF-951A-C5C08C4FE050}" name="More Details" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9F4482CC-1FD0-4F9E-86DC-85FBFD6BCCFC}" name="Images" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F2F9AC65-28D0-479E-9E67-CC95C235C965}" name="Table4" displayName="Table4" ref="A1:D2" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A1:D2" xr:uid="{F2F9AC65-28D0-479E-9E67-CC95C235C965}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{43B88637-4C1C-4874-A9F2-B22D6D2C9583}" name="Concept" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{6F9548E6-AE86-4A55-8A7D-06D48831F31B}" name="Simple Explanation" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{E4E26A6A-A7E3-4911-97B3-28E505F4DAD4}" name="More Details" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{BC78AFBD-8D27-46D8-85A2-6D4C1742CC2F}" name="Images" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{176F3E6E-0B40-411D-9EC0-86CE81A58B5A}" name="Table5" displayName="Table5" ref="A1:D4" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:D4" xr:uid="{176F3E6E-0B40-411D-9EC0-86CE81A58B5A}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{464DA01A-954F-49C7-9E63-8DEB7211DE66}" name="Concept"/>
+    <tableColumn id="2" xr3:uid="{3D054578-73C6-48A5-8175-5B8AF7493DA2}" name="Simple Explanation"/>
+    <tableColumn id="3" xr3:uid="{909616BE-F84A-457D-924E-ADD8BF3328DA}" name="More Details"/>
+    <tableColumn id="4" xr3:uid="{046B6F05-4DCB-4AED-B621-0CF5621C1D54}" name="Images"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1588,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2C8220-7410-4EF2-8250-6DFF6D6FCB86}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" zoomScale="80" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1628,10 +1874,10 @@
         <v>54</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="D3" s="6" t="e" vm="13">
         <v>#VALUE!</v>
@@ -1639,13 +1885,132 @@
     </row>
     <row r="4" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>59</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9E5053-6739-4E96-A6B4-0D4F6127E076}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.21875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8405E989-C2C3-4C34-BBDA-38D307107C56}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.21875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="9" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="6" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/COMP 5570 - Computer Systems/COMP5570 - Computer Systems Cheatsheet.xlsx
+++ b/COMP 5570 - Computer Systems/COMP5570 - Computer Systems Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livekentac-my.sharepoint.com/personal/cw734_kent_ac_uk/Documents/Year 2/COMP 5570 - Computer Systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="8_{8E124519-D201-4BC5-B894-CF72FB495BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87A235D5-7662-4C15-A853-A688BFA5E193}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="8_{8E124519-D201-4BC5-B894-CF72FB495BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A265E375-D7E1-45F9-9B8C-C7808151BF7F}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" tabRatio="681" firstSheet="3" activeTab="4" xr2:uid="{6AFA62CE-6471-4E2F-A950-5D3410004B66}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" tabRatio="681" firstSheet="5" activeTab="6" xr2:uid="{6AFA62CE-6471-4E2F-A950-5D3410004B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture 1 - Introduction" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Lect 3 - Boolean to Arithmetic" sheetId="4" r:id="rId3"/>
     <sheet name="Lecture 4 - Hardware Simulator" sheetId="5" r:id="rId4"/>
     <sheet name="Lecture 5 - Building the ALU" sheetId="6" r:id="rId5"/>
+    <sheet name="Lecture 7 - Memory" sheetId="7" r:id="rId6"/>
+    <sheet name="Lecture 8 and 8 - Machine Code" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="15">
+  <futureMetadata name="XLRICHVALUE" count="21">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -150,8 +152,50 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="15">
+  <valueMetadata count="21">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -196,13 +240,31 @@
     </bk>
     <bk>
       <rc t="1" v="14"/>
+    </bk>
+    <bk>
+      <rc t="1" v="15"/>
+    </bk>
+    <bk>
+      <rc t="1" v="16"/>
+    </bk>
+    <bk>
+      <rc t="1" v="17"/>
+    </bk>
+    <bk>
+      <rc t="1" v="18"/>
+    </bk>
+    <bk>
+      <rc t="1" v="19"/>
+    </bk>
+    <bk>
+      <rc t="1" v="20"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>Concept</t>
   </si>
@@ -598,6 +660,168 @@
   </si>
   <si>
     <t>The Hack ALU</t>
+  </si>
+  <si>
+    <t>Combinational logic vs Sequentual Logic</t>
+  </si>
+  <si>
+    <t>Combinational logic outputs are purely a function of the current inputs and lack any memory component. Sequential logic, on the other hand, incorporates past input history via memory elements, making its outputs dependent on both current and past inputs.</t>
+  </si>
+  <si>
+    <t>ChatGPT says: Combinational logic is like a vending machine: you press a button (input) and immediately get a snack (output). Sequential logic is like a video game console that remembers your progress; it needs to know not just the button you press now but also what you pressed earlier.
+Combinational logic does not let you keep a memory, sequential logic allows you to keep a memory, e.g. for later usage</t>
+  </si>
+  <si>
+    <t>Flip-flops</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The simplest state-keeping gate, the flip-flop is able to output its previous input: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>out(t) = in(t - 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Implementation: a gate that can flip between two stable states: “remembering 0”, or “remembering 1”. Gates that feature this behavior are called data flip-flops.</t>
+  </si>
+  <si>
+    <t>Sequential chips</t>
+  </si>
+  <si>
+    <t>Sequential chips are capable of:
+- maintaining state, and, optionally,
+- acting on the state, and on the current inputs</t>
+  </si>
+  <si>
+    <t>Implementation note
+- All combinational chips are constructed from Nand gates
+- All sequential chips are constructed from DFF gates, and combinational chips.</t>
+  </si>
+  <si>
+    <t>Sequential Chip: 1-bit register</t>
+  </si>
+  <si>
+    <t>A sequential chip, specifically a 1-bit register, is a digital storage element that holds a single bit of data, either a 0 or a 1. It operates based on clock signals, allowing the stored value to be updated or read sequentially, thus enabling temporary data storage in sequential circuits.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We have two inputs: the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (our value of 1 or 0), and our </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>write</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (whether we choose to write to the output or not). If the value of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>write = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, then we aren't going to be changing anything, and the output will stay the same (we ignore the value of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). If the value of write is 1, then it means that we are going to assign a new value to the output based on the value of the input.</t>
+    </r>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>A-instructions</t>
+  </si>
+  <si>
+    <t>Using the @ for understanding instructions and value</t>
+  </si>
+  <si>
+    <t>C-instructions</t>
   </si>
 </sst>
 </file>
@@ -729,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -747,6 +971,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -760,7 +993,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="44">
     <dxf>
       <font>
         <b/>
@@ -805,6 +1038,33 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -831,16 +1091,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -850,11 +1105,85 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1046,7 +1375,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="15">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="21">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -1107,6 +1436,30 @@
     <v>14</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>15</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>16</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>17</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>18</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>19</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>20</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -1136,69 +1489,101 @@
   <rel r:id="rId13"/>
   <rel r:id="rId14"/>
   <rel r:id="rId15"/>
+  <rel r:id="rId16"/>
+  <rel r:id="rId17"/>
+  <rel r:id="rId18"/>
+  <rel r:id="rId19"/>
+  <rel r:id="rId20"/>
+  <rel r:id="rId21"/>
 </richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F0BF9AA8-61B2-4A24-8CE2-456952B6BD75}" name="Table2" displayName="Table2" ref="A1:D11" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F0BF9AA8-61B2-4A24-8CE2-456952B6BD75}" name="Table2" displayName="Table2" ref="A1:D11" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A1:D11" xr:uid="{F0BF9AA8-61B2-4A24-8CE2-456952B6BD75}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{001B0B5C-4D12-4F24-A526-A6CD61886DD3}" name="Concept" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{BEEDB59D-753F-44D0-B380-7EBE644AF613}" name="Simple Explanation" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{173FB7E8-7944-47AB-A3B6-130CC3BA1A0E}" name="More Details" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{D9DA4200-4B4B-4500-981C-AC44309A405F}" name="Images" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{001B0B5C-4D12-4F24-A526-A6CD61886DD3}" name="Concept" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{BEEDB59D-753F-44D0-B380-7EBE644AF613}" name="Simple Explanation" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{173FB7E8-7944-47AB-A3B6-130CC3BA1A0E}" name="More Details" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{D9DA4200-4B4B-4500-981C-AC44309A405F}" name="Images" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33E49A84-9C65-4395-B1AF-F1FDD2B74D33}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33E49A84-9C65-4395-B1AF-F1FDD2B74D33}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <autoFilter ref="A1:D13" xr:uid="{33E49A84-9C65-4395-B1AF-F1FDD2B74D33}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F7385C5B-E307-4705-A518-613A4BEFAF75}" name="Concept" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{2E96E1B9-7B99-46E0-977B-FFDCB1FF6B88}" name="Simple Explanation" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{08D085D8-0647-4F54-BE7F-A866B8A2F147}" name="More Details" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{BD99A90E-BF38-4A48-B19C-6454ADCFD4BA}" name="Images" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{F7385C5B-E307-4705-A518-613A4BEFAF75}" name="Concept" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{2E96E1B9-7B99-46E0-977B-FFDCB1FF6B88}" name="Simple Explanation" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{08D085D8-0647-4F54-BE7F-A866B8A2F147}" name="More Details" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{BD99A90E-BF38-4A48-B19C-6454ADCFD4BA}" name="Images" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F76A7C9-8932-4CE9-ADCD-5523DA787981}" name="Table3" displayName="Table3" ref="A1:D4" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F76A7C9-8932-4CE9-ADCD-5523DA787981}" name="Table3" displayName="Table3" ref="A1:D4" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
   <autoFilter ref="A1:D4" xr:uid="{6F76A7C9-8932-4CE9-ADCD-5523DA787981}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8DF160BD-0435-454F-8C65-50810D9F3108}" name="Concept" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{06F04623-DBC6-48CF-BA91-5CBC0A543B4A}" name="Simple Explanation" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{C88D8EF0-5E79-48CF-951A-C5C08C4FE050}" name="More Details" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{9F4482CC-1FD0-4F9E-86DC-85FBFD6BCCFC}" name="Images" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{8DF160BD-0435-454F-8C65-50810D9F3108}" name="Concept" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{06F04623-DBC6-48CF-BA91-5CBC0A543B4A}" name="Simple Explanation" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{C88D8EF0-5E79-48CF-951A-C5C08C4FE050}" name="More Details" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{9F4482CC-1FD0-4F9E-86DC-85FBFD6BCCFC}" name="Images" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F2F9AC65-28D0-479E-9E67-CC95C235C965}" name="Table4" displayName="Table4" ref="A1:D2" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="9" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F2F9AC65-28D0-479E-9E67-CC95C235C965}" name="Table4" displayName="Table4" ref="A1:D2" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
   <autoFilter ref="A1:D2" xr:uid="{F2F9AC65-28D0-479E-9E67-CC95C235C965}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{43B88637-4C1C-4874-A9F2-B22D6D2C9583}" name="Concept" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{6F9548E6-AE86-4A55-8A7D-06D48831F31B}" name="Simple Explanation" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{E4E26A6A-A7E3-4911-97B3-28E505F4DAD4}" name="More Details" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{BC78AFBD-8D27-46D8-85A2-6D4C1742CC2F}" name="Images" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{43B88637-4C1C-4874-A9F2-B22D6D2C9583}" name="Concept" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{6F9548E6-AE86-4A55-8A7D-06D48831F31B}" name="Simple Explanation" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{E4E26A6A-A7E3-4911-97B3-28E505F4DAD4}" name="More Details" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{BC78AFBD-8D27-46D8-85A2-6D4C1742CC2F}" name="Images" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{176F3E6E-0B40-411D-9EC0-86CE81A58B5A}" name="Table5" displayName="Table5" ref="A1:D4" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{176F3E6E-0B40-411D-9EC0-86CE81A58B5A}" name="Table5" displayName="Table5" ref="A1:D4" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:D4" xr:uid="{176F3E6E-0B40-411D-9EC0-86CE81A58B5A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{464DA01A-954F-49C7-9E63-8DEB7211DE66}" name="Concept"/>
     <tableColumn id="2" xr3:uid="{3D054578-73C6-48A5-8175-5B8AF7493DA2}" name="Simple Explanation"/>
     <tableColumn id="3" xr3:uid="{909616BE-F84A-457D-924E-ADD8BF3328DA}" name="More Details"/>
     <tableColumn id="4" xr3:uid="{046B6F05-4DCB-4AED-B621-0CF5621C1D54}" name="Images"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D7377B00-2851-48D1-9E11-C310BA437AB7}" name="Table6" displayName="Table6" ref="A1:D5" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="A1:D5" xr:uid="{D7377B00-2851-48D1-9E11-C310BA437AB7}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2B4932B6-A9F0-481E-8752-A04BBD2675C5}" name="Concept" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{EDA4A651-F2F3-4C15-8475-1CF643487500}" name="Simple Explanation" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{139DCAFD-4DD7-4F38-A60A-375052A1618F}" name="More Details" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{40BF8FA0-0F40-4A9A-BFD3-77B283F28CC8}" name="Images" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3F83E297-91FB-4CF4-AEA0-91C456FC4014}" name="Table7" displayName="Table7" ref="A1:D4" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:D4" xr:uid="{3F83E297-91FB-4CF4-AEA0-91C456FC4014}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7B4830E7-6AFD-4AD4-B97D-DF84DD4659D5}" name="Concept"/>
+    <tableColumn id="2" xr3:uid="{14999241-4B83-46F7-B107-662750FE1A13}" name="Simple Explanation"/>
+    <tableColumn id="3" xr3:uid="{384A834D-8FAD-4735-8B39-3B7FFB16AF6F}" name="More Details"/>
+    <tableColumn id="4" xr3:uid="{4EE8EADA-DECE-4BE0-8F31-ED6747E4E092}" name="Images"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1519,6 +1904,26 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="1">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{F78A06F2-770E-427F-B6E6-7CFA6DBA9B40}">
+  <we:reference id="wa200005669" version="2.0.0.0" store="en-GB" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200005669" version="2.0.0.0" store="wa200005669" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C11707-3671-4066-B466-9B7955BA8529}">
   <dimension ref="A1:D11"/>
@@ -1956,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8405E989-C2C3-4C34-BBDA-38D307107C56}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2021,6 +2426,167 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347DC7B8-B9FA-4B85-B63B-EFC1BD6E7EDD}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="37.77734375" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="6" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="6" t="e" vm="17">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="6" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="6" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E5" s="6" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" s="6" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D765DC1A-0668-47B7-9E99-CD0472612BE8}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{51a9fa56-3f32-449a-a721-3e3f49aa5e9a}" enabled="0" method="" siteId="{51a9fa56-3f32-449a-a721-3e3f49aa5e9a}" removed="1"/>
